--- a/VisualisationWPF/bin/Debug/net8.0-windows/MetroParis.xlsx
+++ b/VisualisationWPF/bin/Debug/net8.0-windows/MetroParis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e388d8049af18740/Bureau/Projet GitHub/PSI Fonctionnel/Projet_PSI_DELAROCHE_DEGARDIN_DARMON/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e388d8049af18740/Bureau/Projet GitHub/Essai solo/Projet_PSI/Projet_PSI_DELAROCHE_DEGARDIN_DARMON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{F197B208-644A-48F0-8459-2F8A9BB775F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0103B7E9-9148-4C8E-B64D-88A4CF3E31BC}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{F197B208-644A-48F0-8459-2F8A9BB775F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E22D88D5-6BF3-4C60-B8B7-C6FDFEE22C5B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
   </bookViews>
@@ -2417,10 +2417,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10401,7 +10397,7 @@
   <dimension ref="A1:F332"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10472,11 +10468,11 @@
         <v>13</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C20" si="0">C3+1</f>
+        <f>C3+1</f>
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D19" si="1">D3+1</f>
+        <f>D3+1</f>
         <v>4</v>
       </c>
       <c r="E4" s="2">
@@ -10494,11 +10490,11 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>C4+1</f>
         <v>3</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f>D4+1</f>
         <v>5</v>
       </c>
       <c r="E5">
@@ -10513,11 +10509,11 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>C5+1</f>
         <v>4</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f>D5+1</f>
         <v>6</v>
       </c>
       <c r="E6">
@@ -10535,11 +10531,11 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>C6+1</f>
         <v>5</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f>D6+1</f>
         <v>7</v>
       </c>
       <c r="E7">
@@ -10557,11 +10553,11 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>C7+1</f>
         <v>6</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f>D7+1</f>
         <v>8</v>
       </c>
       <c r="E8">
@@ -10579,11 +10575,11 @@
         <v>29</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>C8+1</f>
         <v>7</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f>D8+1</f>
         <v>9</v>
       </c>
       <c r="E9">
@@ -10598,11 +10594,11 @@
         <v>33</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f>C9+1</f>
         <v>8</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f>D9+1</f>
         <v>10</v>
       </c>
       <c r="E10">
@@ -10620,11 +10616,11 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>C10+1</f>
         <v>9</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f>D10+1</f>
         <v>11</v>
       </c>
       <c r="E11">
@@ -10639,11 +10635,11 @@
         <v>39</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f>C11+1</f>
         <v>10</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f>D11+1</f>
         <v>12</v>
       </c>
       <c r="E12">
@@ -10661,11 +10657,11 @@
         <v>43</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f>C12+1</f>
         <v>11</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f>D12+1</f>
         <v>13</v>
       </c>
       <c r="E13">
@@ -10683,11 +10679,11 @@
         <v>46</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f>C13+1</f>
         <v>12</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f>D13+1</f>
         <v>14</v>
       </c>
       <c r="E14">
@@ -10702,11 +10698,11 @@
         <v>49</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f>C14+1</f>
         <v>13</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f>D14+1</f>
         <v>15</v>
       </c>
       <c r="E15">
@@ -10724,11 +10720,11 @@
         <v>53</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f>C15+1</f>
         <v>14</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f>D15+1</f>
         <v>16</v>
       </c>
       <c r="E16">
@@ -10746,11 +10742,11 @@
         <v>56</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f>C16+1</f>
         <v>15</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f>D16+1</f>
         <v>17</v>
       </c>
       <c r="E17">
@@ -10768,11 +10764,11 @@
         <v>59</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f>C17+1</f>
         <v>16</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f>D17+1</f>
         <v>18</v>
       </c>
       <c r="E18">
@@ -10790,11 +10786,11 @@
         <v>62</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f>C18+1</f>
         <v>17</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f>D18+1</f>
         <v>19</v>
       </c>
       <c r="E19">
@@ -10809,7 +10805,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f>C19+1</f>
         <v>18</v>
       </c>
       <c r="D20" s="1"/>
@@ -11044,7 +11040,7 @@
         <v>31</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:D43" si="2">D32+1</f>
+        <f>D32+1</f>
         <v>33</v>
       </c>
       <c r="E33">
@@ -11062,11 +11058,11 @@
         <v>108</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C43" si="3">C33+1</f>
+        <f>C33+1</f>
         <v>32</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f>D33+1</f>
         <v>34</v>
       </c>
       <c r="E34">
@@ -11081,11 +11077,11 @@
         <v>111</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f>C34+1</f>
         <v>33</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
+        <f>D34+1</f>
         <v>35</v>
       </c>
       <c r="E35">
@@ -11103,11 +11099,11 @@
         <v>115</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
+        <f>C35+1</f>
         <v>34</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f>D35+1</f>
         <v>36</v>
       </c>
       <c r="E36">
@@ -11125,11 +11121,11 @@
         <v>118</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
+        <f>C36+1</f>
         <v>35</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f>D36+1</f>
         <v>37</v>
       </c>
       <c r="E37">
@@ -11144,11 +11140,11 @@
         <v>121</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
+        <f>C37+1</f>
         <v>36</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
+        <f>D37+1</f>
         <v>38</v>
       </c>
       <c r="E38">
@@ -11166,11 +11162,11 @@
         <v>124</v>
       </c>
       <c r="C39">
-        <f t="shared" si="3"/>
+        <f>C38+1</f>
         <v>37</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
+        <f>D38+1</f>
         <v>39</v>
       </c>
       <c r="E39">
@@ -11185,11 +11181,11 @@
         <v>128</v>
       </c>
       <c r="C40">
-        <f t="shared" si="3"/>
+        <f>C39+1</f>
         <v>38</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f>D39+1</f>
         <v>40</v>
       </c>
       <c r="E40">
@@ -11204,11 +11200,11 @@
         <v>131</v>
       </c>
       <c r="C41">
-        <f t="shared" si="3"/>
+        <f>C40+1</f>
         <v>39</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
+        <f>D40+1</f>
         <v>41</v>
       </c>
       <c r="E41">
@@ -11226,11 +11222,11 @@
         <v>134</v>
       </c>
       <c r="C42">
-        <f t="shared" si="3"/>
+        <f>C41+1</f>
         <v>40</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
+        <f>D41+1</f>
         <v>42</v>
       </c>
       <c r="E42">
@@ -11245,11 +11241,11 @@
         <v>137</v>
       </c>
       <c r="C43">
-        <f t="shared" si="3"/>
+        <f>C42+1</f>
         <v>41</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f>D42+1</f>
         <v>43</v>
       </c>
       <c r="E43">
@@ -11320,7 +11316,7 @@
       </c>
       <c r="E47">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -11337,7 +11333,7 @@
         <v>48</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48:E111" ca="1" si="4">RANDBETWEEN(1,4)</f>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
     </row>
@@ -11355,8 +11351,8 @@
         <v>49</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -11373,8 +11369,8 @@
         <v>50</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -11394,8 +11390,8 @@
         <v>51</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -11412,8 +11408,8 @@
         <v>52</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -11433,8 +11429,8 @@
         <v>53</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -11451,8 +11447,8 @@
         <v>54</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -11472,7 +11468,7 @@
         <v>55</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
     </row>
@@ -11490,8 +11486,8 @@
         <v>56</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -11508,7 +11504,7 @@
         <v>57</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>2</v>
       </c>
     </row>
@@ -11526,8 +11522,8 @@
         <v>58</v>
       </c>
       <c r="E58">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -11547,8 +11543,8 @@
         <v>59</v>
       </c>
       <c r="E59">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -11568,8 +11564,8 @@
         <v>60</v>
       </c>
       <c r="E60">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -11586,8 +11582,8 @@
         <v>61</v>
       </c>
       <c r="E61">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>5</v>
@@ -11607,7 +11603,7 @@
         <v>62</v>
       </c>
       <c r="E62">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
     </row>
@@ -11625,8 +11621,8 @@
         <v>63</v>
       </c>
       <c r="E63">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -11643,8 +11639,8 @@
         <v>64</v>
       </c>
       <c r="E64">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -11664,8 +11660,8 @@
         <v>65</v>
       </c>
       <c r="E65">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -11682,8 +11678,8 @@
         <v>64</v>
       </c>
       <c r="E66">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
@@ -11717,8 +11713,8 @@
         <v>68</v>
       </c>
       <c r="E68">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
@@ -11735,8 +11731,8 @@
         <v>69</v>
       </c>
       <c r="E69">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
@@ -11750,8 +11746,8 @@
         <v>68</v>
       </c>
       <c r="E70">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -11785,8 +11781,8 @@
         <v>72</v>
       </c>
       <c r="E72">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
@@ -11803,7 +11799,7 @@
         <v>73</v>
       </c>
       <c r="E73">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
       <c r="F73">
@@ -11824,8 +11820,8 @@
         <v>74</v>
       </c>
       <c r="E74">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
@@ -11842,8 +11838,8 @@
         <v>75</v>
       </c>
       <c r="E75">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -11863,8 +11859,8 @@
         <v>76</v>
       </c>
       <c r="E76">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -11884,8 +11880,8 @@
         <v>77</v>
       </c>
       <c r="E77">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F77">
         <v>3</v>
@@ -11905,7 +11901,7 @@
         <v>78</v>
       </c>
       <c r="E78">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
     </row>
@@ -11923,8 +11919,8 @@
         <v>79</v>
       </c>
       <c r="E79">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F79">
         <v>3</v>
@@ -11944,8 +11940,8 @@
         <v>80</v>
       </c>
       <c r="E80">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F80">
         <v>2</v>
@@ -11965,8 +11961,8 @@
         <v>81</v>
       </c>
       <c r="E81">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
@@ -11983,8 +11979,8 @@
         <v>82</v>
       </c>
       <c r="E82">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
@@ -12001,8 +11997,8 @@
         <v>83</v>
       </c>
       <c r="E83">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F83">
         <v>5</v>
@@ -12022,7 +12018,7 @@
         <v>84</v>
       </c>
       <c r="E84">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
     </row>
@@ -12040,8 +12036,8 @@
         <v>85</v>
       </c>
       <c r="E85">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
@@ -12058,8 +12054,8 @@
         <v>86</v>
       </c>
       <c r="E86">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F86">
         <v>2</v>
@@ -12079,8 +12075,8 @@
         <v>87</v>
       </c>
       <c r="E87">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
@@ -12097,8 +12093,8 @@
         <v>88</v>
       </c>
       <c r="E88">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
@@ -12115,8 +12111,8 @@
         <v>89</v>
       </c>
       <c r="E89">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
@@ -12133,8 +12129,8 @@
         <v>90</v>
       </c>
       <c r="E90">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F90">
         <v>4</v>
@@ -12154,8 +12150,8 @@
         <v>91</v>
       </c>
       <c r="E91">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
@@ -12172,8 +12168,8 @@
         <v>92</v>
       </c>
       <c r="E92">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -12193,8 +12189,8 @@
         <v>93</v>
       </c>
       <c r="E93">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -12214,8 +12210,8 @@
         <v>94</v>
       </c>
       <c r="E94">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
@@ -12232,8 +12228,8 @@
         <v>95</v>
       </c>
       <c r="E95">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
@@ -12247,8 +12243,8 @@
         <v>94</v>
       </c>
       <c r="E96">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
@@ -12279,8 +12275,8 @@
         <v>98</v>
       </c>
       <c r="E98">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
@@ -12297,8 +12293,8 @@
         <v>99</v>
       </c>
       <c r="E99">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
@@ -12315,8 +12311,8 @@
         <v>100</v>
       </c>
       <c r="E100">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F100">
         <v>3</v>
@@ -12336,7 +12332,7 @@
         <v>101</v>
       </c>
       <c r="E101">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
       <c r="F101">
@@ -12357,8 +12353,8 @@
         <v>102</v>
       </c>
       <c r="E102">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F102">
         <v>2</v>
@@ -12378,8 +12374,8 @@
         <v>103</v>
       </c>
       <c r="E103">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F103">
         <v>3</v>
@@ -12399,8 +12395,8 @@
         <v>104</v>
       </c>
       <c r="E104">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
@@ -12417,7 +12413,7 @@
         <v>105</v>
       </c>
       <c r="E105">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
       <c r="F105">
@@ -12438,8 +12434,8 @@
         <v>106</v>
       </c>
       <c r="E106">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -12459,8 +12455,8 @@
         <v>107</v>
       </c>
       <c r="E107">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
@@ -12477,8 +12473,8 @@
         <v>108</v>
       </c>
       <c r="E108">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
@@ -12495,8 +12491,8 @@
         <v>109</v>
       </c>
       <c r="E109">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F109">
         <v>3</v>
@@ -12516,8 +12512,8 @@
         <v>110</v>
       </c>
       <c r="E110">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
@@ -12534,8 +12530,8 @@
         <v>111</v>
       </c>
       <c r="E111">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F111">
         <v>2</v>
@@ -12555,8 +12551,8 @@
         <v>112</v>
       </c>
       <c r="E112">
-        <f t="shared" ref="E112:E175" ca="1" si="5">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
@@ -12573,8 +12569,8 @@
         <v>113</v>
       </c>
       <c r="E113">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
@@ -12588,8 +12584,8 @@
         <v>112</v>
       </c>
       <c r="E114">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F114">
         <v>3</v>
@@ -12626,8 +12622,8 @@
         <v>116</v>
       </c>
       <c r="E116">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
@@ -12644,7 +12640,7 @@
         <v>117</v>
       </c>
       <c r="E117">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
     </row>
@@ -12662,8 +12658,8 @@
         <v>118</v>
       </c>
       <c r="E118">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -12683,8 +12679,8 @@
         <v>119</v>
       </c>
       <c r="E119">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
@@ -12701,8 +12697,8 @@
         <v>120</v>
       </c>
       <c r="E120">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
@@ -12719,8 +12715,8 @@
         <v>121</v>
       </c>
       <c r="E121">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
@@ -12737,8 +12733,8 @@
         <v>122</v>
       </c>
       <c r="E122">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F122">
         <v>3</v>
@@ -12758,8 +12754,8 @@
         <v>123</v>
       </c>
       <c r="E123">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
@@ -12776,8 +12772,8 @@
         <v>124</v>
       </c>
       <c r="E124">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
@@ -12794,8 +12790,8 @@
         <v>125</v>
       </c>
       <c r="E125">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F125">
         <v>2</v>
@@ -12815,8 +12811,8 @@
         <v>126</v>
       </c>
       <c r="E126">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F126">
         <v>4</v>
@@ -12836,8 +12832,8 @@
         <v>127</v>
       </c>
       <c r="E127">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
@@ -12854,8 +12850,8 @@
         <v>128</v>
       </c>
       <c r="E128">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F128">
         <v>2</v>
@@ -12875,8 +12871,8 @@
         <v>129</v>
       </c>
       <c r="E129">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F129">
         <v>2</v>
@@ -12896,7 +12892,7 @@
         <v>130</v>
       </c>
       <c r="E130">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>2</v>
       </c>
     </row>
@@ -12914,7 +12910,7 @@
         <v>131</v>
       </c>
       <c r="E131">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
     </row>
@@ -12932,7 +12928,7 @@
         <v>132</v>
       </c>
       <c r="E132">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
     </row>
@@ -12950,7 +12946,7 @@
         <v>133</v>
       </c>
       <c r="E133">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
       <c r="F133">
@@ -12971,7 +12967,7 @@
         <v>134</v>
       </c>
       <c r="E134">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
     </row>
@@ -12989,7 +12985,7 @@
         <v>135</v>
       </c>
       <c r="E135">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
     </row>
@@ -13007,8 +13003,8 @@
         <v>136</v>
       </c>
       <c r="E136">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
@@ -13025,8 +13021,8 @@
         <v>137</v>
       </c>
       <c r="E137">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -13046,8 +13042,8 @@
         <v>138</v>
       </c>
       <c r="E138">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
@@ -13064,8 +13060,8 @@
         <v>139</v>
       </c>
       <c r="E139">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
@@ -13082,8 +13078,8 @@
         <v>140</v>
       </c>
       <c r="E140">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
@@ -13100,8 +13096,8 @@
         <v>141</v>
       </c>
       <c r="E141">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
@@ -13115,8 +13111,8 @@
         <v>140</v>
       </c>
       <c r="E142">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F142">
         <v>4</v>
@@ -13150,8 +13146,8 @@
         <v>144</v>
       </c>
       <c r="E144">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
@@ -13168,8 +13164,8 @@
         <v>145</v>
       </c>
       <c r="E145">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
@@ -13186,8 +13182,8 @@
         <v>146</v>
       </c>
       <c r="E146">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
@@ -13204,8 +13200,8 @@
         <v>147</v>
       </c>
       <c r="E147">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F147">
         <v>3</v>
@@ -13225,7 +13221,7 @@
         <v>148</v>
       </c>
       <c r="E148">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
       <c r="F148">
@@ -13246,8 +13242,8 @@
         <v>149</v>
       </c>
       <c r="E149">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
@@ -13264,8 +13260,8 @@
         <v>150</v>
       </c>
       <c r="E150">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F150">
         <v>3</v>
@@ -13285,7 +13281,7 @@
         <v>151</v>
       </c>
       <c r="E151">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
     </row>
@@ -13303,7 +13299,7 @@
         <v>152</v>
       </c>
       <c r="E152">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
     </row>
@@ -13321,8 +13317,8 @@
         <v>153</v>
       </c>
       <c r="E153">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
@@ -13339,8 +13335,8 @@
         <v>154</v>
       </c>
       <c r="E154">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F154">
         <v>2</v>
@@ -13360,8 +13356,8 @@
         <v>155</v>
       </c>
       <c r="E155">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F155">
         <v>3</v>
@@ -13381,7 +13377,7 @@
         <v>156</v>
       </c>
       <c r="E156">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
       <c r="F156">
@@ -13402,8 +13398,8 @@
         <v>157</v>
       </c>
       <c r="E157">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F157">
         <v>2</v>
@@ -13423,8 +13419,8 @@
         <v>158</v>
       </c>
       <c r="E158">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
@@ -13441,8 +13437,8 @@
         <v>159</v>
       </c>
       <c r="E159">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F159">
         <v>5</v>
@@ -13462,8 +13458,8 @@
         <v>160</v>
       </c>
       <c r="E160">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
@@ -13480,8 +13476,8 @@
         <v>161</v>
       </c>
       <c r="E161">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
@@ -13498,8 +13494,8 @@
         <v>162</v>
       </c>
       <c r="E162">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F162">
         <v>2</v>
@@ -13519,8 +13515,8 @@
         <v>163</v>
       </c>
       <c r="E163">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
@@ -13537,8 +13533,8 @@
         <v>164</v>
       </c>
       <c r="E164">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
@@ -13555,8 +13551,8 @@
         <v>165</v>
       </c>
       <c r="E165">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
@@ -13573,7 +13569,7 @@
         <v>166</v>
       </c>
       <c r="E166">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
       <c r="F166">
@@ -13594,8 +13590,8 @@
         <v>167</v>
       </c>
       <c r="E167">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
@@ -13612,8 +13608,8 @@
         <v>168</v>
       </c>
       <c r="E168">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F168">
         <v>2</v>
@@ -13633,8 +13629,8 @@
         <v>169</v>
       </c>
       <c r="E169">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
@@ -13651,7 +13647,7 @@
         <v>170</v>
       </c>
       <c r="E170">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
     </row>
@@ -13666,8 +13662,8 @@
         <v>169</v>
       </c>
       <c r="E171">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
@@ -13701,8 +13697,8 @@
         <v>173</v>
       </c>
       <c r="E173">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F173">
         <v>2</v>
@@ -13722,8 +13718,8 @@
         <v>174</v>
       </c>
       <c r="E174">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F174">
         <v>3</v>
@@ -13743,8 +13739,8 @@
         <v>175</v>
       </c>
       <c r="E175">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
@@ -13761,8 +13757,8 @@
         <v>176</v>
       </c>
       <c r="E176">
-        <f t="shared" ref="E176:E239" ca="1" si="6">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
@@ -13779,8 +13775,8 @@
         <v>177</v>
       </c>
       <c r="E177">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
@@ -13797,8 +13793,8 @@
         <v>178</v>
       </c>
       <c r="E178">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F178">
         <v>2</v>
@@ -13818,8 +13814,8 @@
         <v>179</v>
       </c>
       <c r="E179">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
@@ -13836,8 +13832,8 @@
         <v>180</v>
       </c>
       <c r="E180">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
@@ -13851,8 +13847,8 @@
         <v>179</v>
       </c>
       <c r="E181">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
@@ -13883,8 +13879,8 @@
         <v>183</v>
       </c>
       <c r="E183">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
@@ -13901,8 +13897,8 @@
         <v>184</v>
       </c>
       <c r="E184">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.45">
@@ -13919,8 +13915,8 @@
         <v>185</v>
       </c>
       <c r="E185">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
@@ -13937,8 +13933,8 @@
         <v>186</v>
       </c>
       <c r="E186">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
@@ -13955,8 +13951,8 @@
         <v>187</v>
       </c>
       <c r="E187">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F187">
         <v>3</v>
@@ -13976,8 +13972,8 @@
         <v>188</v>
       </c>
       <c r="E188">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
@@ -13994,7 +13990,7 @@
         <v>189</v>
       </c>
       <c r="E189">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
     </row>
@@ -14012,8 +14008,8 @@
         <v>190</v>
       </c>
       <c r="E190">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F190">
         <v>2</v>
@@ -14033,8 +14029,8 @@
         <v>191</v>
       </c>
       <c r="E191">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F191">
         <v>3</v>
@@ -14054,8 +14050,8 @@
         <v>192</v>
       </c>
       <c r="E192">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F192">
         <v>3</v>
@@ -14075,8 +14071,8 @@
         <v>193</v>
       </c>
       <c r="E193">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F193">
         <v>3</v>
@@ -14096,7 +14092,7 @@
         <v>194</v>
       </c>
       <c r="E194">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
       <c r="F194">
@@ -14117,8 +14113,8 @@
         <v>195</v>
       </c>
       <c r="E195">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F195">
         <v>2</v>
@@ -14138,8 +14134,8 @@
         <v>196</v>
       </c>
       <c r="E196">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F196">
         <v>2</v>
@@ -14159,8 +14155,8 @@
         <v>197</v>
       </c>
       <c r="E197">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F197">
         <v>3</v>
@@ -14180,7 +14176,7 @@
         <v>198</v>
       </c>
       <c r="E198">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
       <c r="F198">
@@ -14201,7 +14197,7 @@
         <v>199</v>
       </c>
       <c r="E199">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
     </row>
@@ -14219,8 +14215,8 @@
         <v>200</v>
       </c>
       <c r="E200">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
@@ -14237,8 +14233,8 @@
         <v>201</v>
       </c>
       <c r="E201">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.45">
@@ -14255,8 +14251,8 @@
         <v>202</v>
       </c>
       <c r="E202">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F202">
         <v>3</v>
@@ -14276,8 +14272,8 @@
         <v>203</v>
       </c>
       <c r="E203">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
@@ -14294,8 +14290,8 @@
         <v>204</v>
       </c>
       <c r="E204">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.45">
@@ -14312,8 +14308,8 @@
         <v>205</v>
       </c>
       <c r="E205">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F205">
         <v>2</v>
@@ -14333,8 +14329,8 @@
         <v>206</v>
       </c>
       <c r="E206">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
@@ -14351,8 +14347,8 @@
         <v>207</v>
       </c>
       <c r="E207">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F207">
         <v>2</v>
@@ -14372,7 +14368,7 @@
         <v>208</v>
       </c>
       <c r="E208">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
     </row>
@@ -14390,8 +14386,8 @@
         <v>209</v>
       </c>
       <c r="E209">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.45">
@@ -14405,7 +14401,7 @@
         <v>208</v>
       </c>
       <c r="E210">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
     </row>
@@ -14437,7 +14433,7 @@
         <v>212</v>
       </c>
       <c r="E212">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
     </row>
@@ -14455,7 +14451,7 @@
         <v>213</v>
       </c>
       <c r="E213">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
       <c r="F213">
@@ -14476,8 +14472,8 @@
         <v>214</v>
       </c>
       <c r="E214">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F214">
         <v>2</v>
@@ -14497,8 +14493,8 @@
         <v>215</v>
       </c>
       <c r="E215">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.45">
@@ -14515,7 +14511,7 @@
         <v>216</v>
       </c>
       <c r="E216">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
     </row>
@@ -14533,8 +14529,8 @@
         <v>217</v>
       </c>
       <c r="E217">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.45">
@@ -14551,8 +14547,8 @@
         <v>218</v>
       </c>
       <c r="E218">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
@@ -14569,7 +14565,7 @@
         <v>219</v>
       </c>
       <c r="E219">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
       <c r="F219">
@@ -14590,8 +14586,8 @@
         <v>220</v>
       </c>
       <c r="E220">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.45">
@@ -14608,7 +14604,7 @@
         <v>221</v>
       </c>
       <c r="E221">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
     </row>
@@ -14626,8 +14622,8 @@
         <v>222</v>
       </c>
       <c r="E222">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F222">
         <v>3</v>
@@ -14647,7 +14643,7 @@
         <v>223</v>
       </c>
       <c r="E223">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>2</v>
       </c>
     </row>
@@ -14665,8 +14661,8 @@
         <v>224</v>
       </c>
       <c r="E224">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F224">
         <v>2</v>
@@ -14686,8 +14682,8 @@
         <v>225</v>
       </c>
       <c r="E225">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F225">
         <v>2</v>
@@ -14707,8 +14703,8 @@
         <v>226</v>
       </c>
       <c r="E226">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F226">
         <v>2</v>
@@ -14728,8 +14724,8 @@
         <v>227</v>
       </c>
       <c r="E227">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F227">
         <v>2</v>
@@ -14749,8 +14745,8 @@
         <v>228</v>
       </c>
       <c r="E228">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F228">
         <v>2</v>
@@ -14770,8 +14766,8 @@
         <v>229</v>
       </c>
       <c r="E229">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F229">
         <v>2</v>
@@ -14791,7 +14787,7 @@
         <v>230</v>
       </c>
       <c r="E230">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
       <c r="F230">
@@ -14812,8 +14808,8 @@
         <v>231</v>
       </c>
       <c r="E231">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F231">
         <v>3</v>
@@ -14833,8 +14829,8 @@
         <v>232</v>
       </c>
       <c r="E232">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F232">
         <v>5</v>
@@ -14854,8 +14850,8 @@
         <v>233</v>
       </c>
       <c r="E233">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F233">
         <v>2</v>
@@ -14875,8 +14871,8 @@
         <v>234</v>
       </c>
       <c r="E234">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.45">
@@ -14893,8 +14889,8 @@
         <v>235</v>
       </c>
       <c r="E235">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.45">
@@ -14911,8 +14907,8 @@
         <v>236</v>
       </c>
       <c r="E236">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.45">
@@ -14929,8 +14925,8 @@
         <v>237</v>
       </c>
       <c r="E237">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.45">
@@ -14947,8 +14943,8 @@
         <v>238</v>
       </c>
       <c r="E238">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F238">
         <v>4</v>
@@ -14968,8 +14964,8 @@
         <v>239</v>
       </c>
       <c r="E239">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.45">
@@ -14986,8 +14982,8 @@
         <v>240</v>
       </c>
       <c r="E240">
-        <f t="shared" ref="E240:E303" ca="1" si="7">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.45">
@@ -15001,8 +14997,8 @@
         <v>239</v>
       </c>
       <c r="E241">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.45">
@@ -15036,8 +15032,8 @@
         <v>243</v>
       </c>
       <c r="E243">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F243">
         <v>2</v>
@@ -15057,8 +15053,8 @@
         <v>244</v>
       </c>
       <c r="E244">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.45">
@@ -15075,7 +15071,7 @@
         <v>245</v>
       </c>
       <c r="E245">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
     </row>
@@ -15093,8 +15089,8 @@
         <v>246</v>
       </c>
       <c r="E246">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.45">
@@ -15111,7 +15107,7 @@
         <v>247</v>
       </c>
       <c r="E247">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
       <c r="F247">
@@ -15132,8 +15128,8 @@
         <v>248</v>
       </c>
       <c r="E248">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.45">
@@ -15150,8 +15146,8 @@
         <v>249</v>
       </c>
       <c r="E249">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F249">
         <v>2</v>
@@ -15171,8 +15167,8 @@
         <v>250</v>
       </c>
       <c r="E250">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.45">
@@ -15189,8 +15185,8 @@
         <v>251</v>
       </c>
       <c r="E251">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F251">
         <v>2</v>
@@ -15210,8 +15206,8 @@
         <v>252</v>
       </c>
       <c r="E252">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.45">
@@ -15228,8 +15224,8 @@
         <v>253</v>
       </c>
       <c r="E253">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F253">
         <v>3</v>
@@ -15249,8 +15245,8 @@
         <v>254</v>
       </c>
       <c r="E254">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.45">
@@ -15267,8 +15263,8 @@
         <v>255</v>
       </c>
       <c r="E255">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.45">
@@ -15285,8 +15281,8 @@
         <v>256</v>
       </c>
       <c r="E256">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F256">
         <v>2</v>
@@ -15306,8 +15302,8 @@
         <v>257</v>
       </c>
       <c r="E257">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.45">
@@ -15324,8 +15320,8 @@
         <v>258</v>
       </c>
       <c r="E258">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F258">
         <v>2</v>
@@ -15342,8 +15338,8 @@
         <v>257</v>
       </c>
       <c r="E259">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.45">
@@ -15377,8 +15373,8 @@
         <v>261</v>
       </c>
       <c r="E261">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.45">
@@ -15392,8 +15388,8 @@
         <v>260</v>
       </c>
       <c r="E262">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.45">
@@ -15427,8 +15423,8 @@
         <v>264</v>
       </c>
       <c r="E264">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F264">
         <v>2</v>
@@ -15448,8 +15444,8 @@
         <v>265</v>
       </c>
       <c r="E265">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.45">
@@ -15466,7 +15462,7 @@
         <v>266</v>
       </c>
       <c r="E266">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
       <c r="F266">
@@ -15487,7 +15483,7 @@
         <v>267</v>
       </c>
       <c r="E267">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
       <c r="F267">
@@ -15508,7 +15504,7 @@
         <v>268</v>
       </c>
       <c r="E268">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
     </row>
@@ -15526,8 +15522,8 @@
         <v>269</v>
       </c>
       <c r="E269">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F269">
         <v>2</v>
@@ -15547,8 +15543,8 @@
         <v>270</v>
       </c>
       <c r="E270">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.45">
@@ -15565,8 +15561,8 @@
         <v>271</v>
       </c>
       <c r="E271">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.45">
@@ -15583,8 +15579,8 @@
         <v>272</v>
       </c>
       <c r="E272">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F272">
         <v>2</v>
@@ -15604,8 +15600,8 @@
         <v>273</v>
       </c>
       <c r="E273">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.45">
@@ -15619,8 +15615,8 @@
         <v>272</v>
       </c>
       <c r="E274">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F274">
         <v>2</v>
@@ -15654,8 +15650,8 @@
         <v>276</v>
       </c>
       <c r="E276">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.45">
@@ -15672,7 +15668,7 @@
         <v>277</v>
       </c>
       <c r="E277">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
       <c r="F277">
@@ -15693,8 +15689,8 @@
         <v>278</v>
       </c>
       <c r="E278">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.45">
@@ -15711,7 +15707,7 @@
         <v>279</v>
       </c>
       <c r="E279">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
     </row>
@@ -15729,7 +15725,7 @@
         <v>280</v>
       </c>
       <c r="E280">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>2</v>
       </c>
     </row>
@@ -15747,8 +15743,8 @@
         <v>281</v>
       </c>
       <c r="E281">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F281">
         <v>2</v>
@@ -15768,8 +15764,8 @@
         <v>282</v>
       </c>
       <c r="E282">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.45">
@@ -15786,8 +15782,8 @@
         <v>283</v>
       </c>
       <c r="E283">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.45">
@@ -15804,8 +15800,8 @@
         <v>284</v>
       </c>
       <c r="E284">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.45">
@@ -15822,7 +15818,7 @@
         <v>285</v>
       </c>
       <c r="E285">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
       <c r="F285">
@@ -15843,8 +15839,8 @@
         <v>286</v>
       </c>
       <c r="E286">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F286">
         <v>3</v>
@@ -15864,8 +15860,8 @@
         <v>287</v>
       </c>
       <c r="E287">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F287">
         <v>3</v>
@@ -15885,7 +15881,7 @@
         <v>288</v>
       </c>
       <c r="E288">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
     </row>
@@ -15903,8 +15899,8 @@
         <v>289</v>
       </c>
       <c r="E289">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.45">
@@ -15921,8 +15917,8 @@
         <v>290</v>
       </c>
       <c r="E290">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.45">
@@ -15939,8 +15935,8 @@
         <v>291</v>
       </c>
       <c r="E291">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F291">
         <v>2</v>
@@ -15960,8 +15956,8 @@
         <v>292</v>
       </c>
       <c r="E292">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.45">
@@ -15978,8 +15974,8 @@
         <v>293</v>
       </c>
       <c r="E293">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.45">
@@ -15996,8 +15992,8 @@
         <v>294</v>
       </c>
       <c r="E294">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F294">
         <v>4</v>
@@ -16017,8 +16013,8 @@
         <v>295</v>
       </c>
       <c r="E295">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.45">
@@ -16035,8 +16031,8 @@
         <v>296</v>
       </c>
       <c r="E296">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F296">
         <v>2</v>
@@ -16056,8 +16052,8 @@
         <v>297</v>
       </c>
       <c r="E297">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.45">
@@ -16074,8 +16070,8 @@
         <v>298</v>
       </c>
       <c r="E298">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.45">
@@ -16092,8 +16088,8 @@
         <v>299</v>
       </c>
       <c r="E299">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.45">
@@ -16107,8 +16103,8 @@
         <v>298</v>
       </c>
       <c r="E300">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.45">
@@ -16139,8 +16135,8 @@
         <v>302</v>
       </c>
       <c r="E302">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.45">
@@ -16157,8 +16153,8 @@
         <v>303</v>
       </c>
       <c r="E303">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.45">
@@ -16175,8 +16171,8 @@
         <v>304</v>
       </c>
       <c r="E304">
-        <f t="shared" ref="E304:E332" ca="1" si="8">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.45">
@@ -16193,8 +16189,8 @@
         <v>305</v>
       </c>
       <c r="E305">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F305">
         <v>4</v>
@@ -16214,8 +16210,8 @@
         <v>306</v>
       </c>
       <c r="E306">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.45">
@@ -16232,7 +16228,7 @@
         <v>307</v>
       </c>
       <c r="E307">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
     </row>
@@ -16250,8 +16246,8 @@
         <v>308</v>
       </c>
       <c r="E308">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.45">
@@ -16268,8 +16264,8 @@
         <v>309</v>
       </c>
       <c r="E309">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F309">
         <v>2</v>
@@ -16289,7 +16285,7 @@
         <v>310</v>
       </c>
       <c r="E310">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
       <c r="F310">
@@ -16310,7 +16306,7 @@
         <v>311</v>
       </c>
       <c r="E311">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
       <c r="F311">
@@ -16331,8 +16327,8 @@
         <v>312</v>
       </c>
       <c r="E312">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F312">
         <v>4</v>
@@ -16352,8 +16348,8 @@
         <v>313</v>
       </c>
       <c r="E313">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.45">
@@ -16370,8 +16366,8 @@
         <v>314</v>
       </c>
       <c r="E314">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F314">
         <v>2</v>
@@ -16391,8 +16387,8 @@
         <v>315</v>
       </c>
       <c r="E315">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.45">
@@ -16409,8 +16405,8 @@
         <v>316</v>
       </c>
       <c r="E316">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.45">
@@ -16427,8 +16423,8 @@
         <v>317</v>
       </c>
       <c r="E317">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.45">
@@ -16445,7 +16441,7 @@
         <v>318</v>
       </c>
       <c r="E318">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
     </row>
@@ -16463,8 +16459,8 @@
         <v>319</v>
       </c>
       <c r="E319">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.45">
@@ -16478,8 +16474,8 @@
         <v>318</v>
       </c>
       <c r="E320">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F320">
         <v>2</v>
@@ -16516,8 +16512,8 @@
         <v>322</v>
       </c>
       <c r="E322">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.45">
@@ -16534,8 +16530,8 @@
         <v>323</v>
       </c>
       <c r="E323">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F323">
         <v>5</v>
@@ -16555,8 +16551,8 @@
         <v>324</v>
       </c>
       <c r="E324">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F324">
         <v>3</v>
@@ -16576,8 +16572,8 @@
         <v>325</v>
       </c>
       <c r="E325">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F325">
         <v>2</v>
@@ -16597,7 +16593,7 @@
         <v>326</v>
       </c>
       <c r="E326">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>2</v>
       </c>
       <c r="F326">
@@ -16618,8 +16614,8 @@
         <v>327</v>
       </c>
       <c r="E327">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F327">
         <v>2</v>
@@ -16639,8 +16635,8 @@
         <v>328</v>
       </c>
       <c r="E328">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="F328">
         <v>2</v>
@@ -16660,7 +16656,7 @@
         <v>329</v>
       </c>
       <c r="E329">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
     </row>
@@ -16678,8 +16674,8 @@
         <v>330</v>
       </c>
       <c r="E330">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.45">
@@ -16696,7 +16692,7 @@
         <v>331</v>
       </c>
       <c r="E331">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
     </row>
@@ -16711,7 +16707,7 @@
         <v>330</v>
       </c>
       <c r="E332">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">RANDBETWEEN(1,4)</f>
         <v>2</v>
       </c>
       <c r="F332">
@@ -16719,7 +16715,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{C0CFEF04-CB9F-4D0E-AA44-E5CDB48F03B4}"/>
+  <autoFilter ref="A1:F1" xr:uid="{C0CFEF04-CB9F-4D0E-AA44-E5CDB48F03B4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F332">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>